--- a/TEAM-Kenya_data_out/base-case-kenya-data/FuelPrice-kenyavalues.xlsx
+++ b/TEAM-Kenya_data_out/base-case-kenya-data/FuelPrice-kenyavalues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\TEAM-Kenya\TEAM-Kenya_data_out\base-case-kenya-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16C5B3C-05E6-4264-B582-DF88579E68C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6366E-FADE-4872-A630-E2D08A84E36F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="2565" windowWidth="19290" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="2570" windowWidth="19290" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FuelPrice" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,6 @@
     <definedName name="FuelPrice">FuelPrice!$A$1:$G$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -120,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,9 +147,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,9 +182,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +234,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,12 +430,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,10 +480,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>57</v>
       </c>
@@ -484,10 +505,10 @@
         <v>0.14666666666666667</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>113</v>
       </c>
@@ -509,10 +530,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>169</v>
       </c>
@@ -534,10 +555,10 @@
         <v>0.14666666666666667</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>225</v>
       </c>
@@ -559,10 +580,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>281</v>
       </c>
@@ -584,10 +605,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>337</v>
       </c>
@@ -609,10 +630,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>393</v>
       </c>
@@ -634,10 +655,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>449</v>
       </c>
@@ -659,10 +680,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>505</v>
       </c>
@@ -684,10 +705,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>561</v>
       </c>
@@ -711,7 +732,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>617</v>
       </c>
@@ -725,16 +746,16 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>673</v>
       </c>
@@ -748,16 +769,16 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>729</v>
       </c>
@@ -780,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>785</v>
       </c>
